--- a/src/test/resources/data/TestInformation.xlsx
+++ b/src/test/resources/data/TestInformation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0BF9C960-C12D-4989-AC97-FB533CB1697E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{14CFB470-D20F-4C5F-97C9-394BB31E1E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15405" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="4770" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestInformation" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>testname</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>Verify whether all the products related to the searched product name are only displayed</t>
@@ -418,7 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -441,109 +438,109 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
